--- a/open_pyxl/xlfiles/Test.xlsx
+++ b/open_pyxl/xlfiles/Test.xlsx
@@ -436,10 +436,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="2">
